--- a/halp/notebook/data/logreg_train_loss_all_temporal.xlsx
+++ b/halp/notebook/data/logreg_train_loss_all_temporal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="logreg_train_loss_all_temporal" sheetId="1" r:id="rId1"/>
@@ -111,6 +111,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>LogReg</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> MNIST</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -595,11 +624,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="245254016"/>
-        <c:axId val="629863536"/>
+        <c:axId val="518251952"/>
+        <c:axId val="518259648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="245254016"/>
+        <c:axId val="518251952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -697,7 +726,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="629863536"/>
+        <c:crossAx val="518259648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -705,7 +734,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="629863536"/>
+        <c:axId val="518259648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.3"/>
@@ -818,7 +847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245254016"/>
+        <c:crossAx val="518251952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1452,10 +1481,10 @@
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1742,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
